--- a/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_darkred_PPCM_.xlsx
+++ b/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_darkred_PPCM_.xlsx
@@ -168,16 +168,16 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.6341487289868213</v>
+        <v>-2.668411547949265</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4261130094626596E-5</v>
+        <v>6.919818492609946E-5</v>
       </c>
       <c r="G2" t="n">
-        <v>8.222671222710384E-4</v>
+        <v>0.0016607564382263868</v>
       </c>
       <c r="H2" t="n">
-        <v>7.93415644296616E-4</v>
+        <v>0.0016024842824991451</v>
       </c>
       <c r="I2" t="n">
         <v>11.0</v>
@@ -203,16 +203,16 @@
         <v>-0.68</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.2518942162365736</v>
+        <v>-2.2274982464649993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0025721659958849253</v>
+        <v>0.001963635003340814</v>
       </c>
       <c r="G3" t="n">
-        <v>0.030865991950619103</v>
+        <v>0.023563620040089772</v>
       </c>
       <c r="H3" t="n">
-        <v>0.029782974689193872</v>
+        <v>0.02273682635447259</v>
       </c>
       <c r="I3" t="n">
         <v>25.0</v>
